--- a/files/28_11_2022/route_number_4.xlsx
+++ b/files/28_11_2022/route_number_4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,1365 +435,872 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>687620</v>
+        <v>609803</v>
       </c>
       <c r="B2">
-        <v>698718</v>
+        <v>406542</v>
       </c>
       <c r="C2">
-        <v>37.3540951</v>
+        <v>37.97532627</v>
       </c>
       <c r="D2">
-        <v>55.83646064</v>
+        <v>55.74756317</v>
       </c>
       <c r="E2">
-        <v>37.36516704</v>
+        <v>38.0002596</v>
       </c>
       <c r="F2">
-        <v>55.8502615</v>
+        <v>55.74632373</v>
       </c>
       <c r="G2">
-        <v>13.73</v>
+        <v>13.74</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>698718</v>
+        <v>406542</v>
       </c>
       <c r="B3">
-        <v>657216</v>
+        <v>635724</v>
       </c>
       <c r="C3">
-        <v>37.36516704</v>
+        <v>38.0002596</v>
       </c>
       <c r="D3">
-        <v>55.8502615</v>
+        <v>55.74632373</v>
       </c>
       <c r="E3">
-        <v>37.35778734</v>
+        <v>38.01862784</v>
       </c>
       <c r="F3">
-        <v>55.85403238</v>
+        <v>55.74157181</v>
       </c>
       <c r="G3">
-        <v>12.31</v>
+        <v>13.08</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>2.31</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>657216</v>
+        <v>635724</v>
       </c>
       <c r="B4">
-        <v>658902</v>
+        <v>682273</v>
       </c>
       <c r="C4">
-        <v>37.35778734</v>
+        <v>38.01862784</v>
       </c>
       <c r="D4">
-        <v>55.85403238</v>
+        <v>55.74157181</v>
       </c>
       <c r="E4">
-        <v>37.31713891</v>
+        <v>38.02618711</v>
       </c>
       <c r="F4">
-        <v>55.87320214</v>
+        <v>55.74968291</v>
       </c>
       <c r="G4">
-        <v>15.19</v>
+        <v>13.31</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>5.190000000000001</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>658902</v>
+        <v>682273</v>
       </c>
       <c r="B5">
-        <v>644825</v>
+        <v>636533</v>
       </c>
       <c r="C5">
-        <v>37.31713891</v>
+        <v>38.02618711</v>
       </c>
       <c r="D5">
-        <v>55.87320214</v>
+        <v>55.74968291</v>
       </c>
       <c r="E5">
-        <v>37.36328397</v>
+        <v>37.86468764</v>
       </c>
       <c r="F5">
-        <v>55.81668736</v>
+        <v>55.78020029</v>
       </c>
       <c r="G5">
-        <v>24.27</v>
+        <v>33.51000000000001</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>14.27</v>
+        <v>23.51000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>644825</v>
+        <v>636533</v>
       </c>
       <c r="B6">
-        <v>634757</v>
+        <v>625034</v>
       </c>
       <c r="C6">
-        <v>37.36328397</v>
+        <v>37.86468764</v>
       </c>
       <c r="D6">
-        <v>55.81668736</v>
+        <v>55.78020029</v>
       </c>
       <c r="E6">
-        <v>37.39768592</v>
+        <v>37.81004717</v>
       </c>
       <c r="F6">
-        <v>55.81787401</v>
+        <v>55.72421089</v>
       </c>
       <c r="G6">
-        <v>18.77</v>
+        <v>21.6</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>8.77</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>634757</v>
+        <v>625034</v>
       </c>
       <c r="B7">
-        <v>682240</v>
+        <v>629731</v>
       </c>
       <c r="C7">
-        <v>37.39768592</v>
+        <v>37.81004717</v>
       </c>
       <c r="D7">
-        <v>55.81787401</v>
+        <v>55.72421089</v>
       </c>
       <c r="E7">
-        <v>37.58911589</v>
+        <v>37.77197673</v>
       </c>
       <c r="F7">
-        <v>55.90264207</v>
+        <v>55.81092721</v>
       </c>
       <c r="G7">
-        <v>27.7</v>
+        <v>27.26</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>17.7</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>682240</v>
+        <v>629731</v>
       </c>
       <c r="B8">
-        <v>688301</v>
+        <v>657937</v>
       </c>
       <c r="C8">
-        <v>37.58911589</v>
+        <v>37.77197673</v>
       </c>
       <c r="D8">
-        <v>55.90264207</v>
+        <v>55.81092721</v>
       </c>
       <c r="E8">
-        <v>37.58552896</v>
+        <v>37.7568257</v>
       </c>
       <c r="F8">
-        <v>55.89288422</v>
+        <v>55.82187263</v>
       </c>
       <c r="G8">
-        <v>12.32</v>
+        <v>16.14</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>2.32</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>688301</v>
+        <v>657937</v>
       </c>
       <c r="B9">
-        <v>616735</v>
+        <v>688262</v>
       </c>
       <c r="C9">
-        <v>37.58552896</v>
+        <v>37.7568257</v>
       </c>
       <c r="D9">
-        <v>55.89288422</v>
+        <v>55.82187263</v>
       </c>
       <c r="E9">
-        <v>37.59877739</v>
+        <v>37.52797603</v>
       </c>
       <c r="F9">
-        <v>55.89099221</v>
+        <v>55.6474313</v>
       </c>
       <c r="G9">
-        <v>12.9</v>
+        <v>42.63</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>2.9</v>
+        <v>32.63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>616735</v>
+        <v>688262</v>
       </c>
       <c r="B10">
-        <v>688856</v>
+        <v>629748</v>
       </c>
       <c r="C10">
-        <v>37.59877739</v>
+        <v>37.52797603</v>
       </c>
       <c r="D10">
-        <v>55.89099221</v>
+        <v>55.6474313</v>
       </c>
       <c r="E10">
-        <v>37.60278915</v>
+        <v>37.32710791</v>
       </c>
       <c r="F10">
-        <v>55.89737336</v>
+        <v>55.49085018</v>
       </c>
       <c r="G10">
-        <v>12.03</v>
+        <v>34.98999999999999</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>2.029999999999999</v>
+        <v>24.98999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>688856</v>
+        <v>629748</v>
       </c>
       <c r="B11">
-        <v>606048</v>
+        <v>634938</v>
       </c>
       <c r="C11">
-        <v>37.60278915</v>
+        <v>37.32710791</v>
       </c>
       <c r="D11">
-        <v>55.89737336</v>
+        <v>55.49085018</v>
       </c>
       <c r="E11">
-        <v>37.61862595</v>
+        <v>37.30486807</v>
       </c>
       <c r="F11">
-        <v>55.89183311</v>
+        <v>55.48449093</v>
       </c>
       <c r="G11">
-        <v>12.8</v>
+        <v>14.82</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>2.800000000000001</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>606048</v>
+        <v>634938</v>
       </c>
       <c r="B12">
-        <v>607721</v>
+        <v>688349</v>
       </c>
       <c r="C12">
-        <v>37.61862595</v>
+        <v>37.30486807</v>
       </c>
       <c r="D12">
-        <v>55.89183311</v>
+        <v>55.48449093</v>
       </c>
       <c r="E12">
-        <v>37.62747722</v>
+        <v>37.33120726</v>
       </c>
       <c r="F12">
-        <v>55.89278349</v>
+        <v>55.44584055</v>
       </c>
       <c r="G12">
-        <v>11.62</v>
+        <v>22.73</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>1.620000000000001</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>607721</v>
+        <v>688349</v>
       </c>
       <c r="B13">
-        <v>634655</v>
+        <v>644082</v>
       </c>
       <c r="C13">
-        <v>37.62747722</v>
+        <v>37.33120726</v>
       </c>
       <c r="D13">
-        <v>55.89278349</v>
+        <v>55.44584055</v>
       </c>
       <c r="E13">
-        <v>37.61043601</v>
+        <v>37.50731723</v>
       </c>
       <c r="F13">
-        <v>55.88535123</v>
+        <v>55.36663026</v>
       </c>
       <c r="G13">
-        <v>16.91</v>
+        <v>40.17</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>6.91</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>634655</v>
+        <v>644082</v>
       </c>
       <c r="B14">
-        <v>634793</v>
+        <v>627765</v>
       </c>
       <c r="C14">
-        <v>37.61043601</v>
+        <v>37.50731723</v>
       </c>
       <c r="D14">
-        <v>55.88535123</v>
+        <v>55.36663026</v>
       </c>
       <c r="E14">
-        <v>37.57420758</v>
+        <v>37.4814379</v>
       </c>
       <c r="F14">
-        <v>55.89227107</v>
+        <v>55.41846338</v>
       </c>
       <c r="G14">
-        <v>19.3</v>
+        <v>28.49</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>9.300000000000001</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>634793</v>
+        <v>627765</v>
       </c>
       <c r="B15">
-        <v>689114</v>
+        <v>634835</v>
       </c>
       <c r="C15">
-        <v>37.57420758</v>
+        <v>37.4814379</v>
       </c>
       <c r="D15">
-        <v>55.89227107</v>
+        <v>55.41846338</v>
       </c>
       <c r="E15">
-        <v>37.57267908</v>
+        <v>37.48642894</v>
       </c>
       <c r="F15">
-        <v>55.87962265</v>
+        <v>55.4227017</v>
       </c>
       <c r="G15">
-        <v>15.6</v>
+        <v>11.58</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>5.6</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>689114</v>
+        <v>634835</v>
       </c>
       <c r="B16">
-        <v>644831</v>
+        <v>635295</v>
       </c>
       <c r="C16">
-        <v>37.57267908</v>
+        <v>37.48642894</v>
       </c>
       <c r="D16">
-        <v>55.87962265</v>
+        <v>55.4227017</v>
       </c>
       <c r="E16">
-        <v>37.54381721</v>
+        <v>37.54300697</v>
       </c>
       <c r="F16">
-        <v>55.87715253</v>
+        <v>55.47770248</v>
       </c>
       <c r="G16">
-        <v>11.88</v>
+        <v>25.81</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>1.879999999999999</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>644831</v>
+        <v>635295</v>
       </c>
       <c r="B17">
-        <v>698680</v>
+        <v>606536</v>
       </c>
       <c r="C17">
-        <v>37.54381721</v>
+        <v>37.54300697</v>
       </c>
       <c r="D17">
-        <v>55.87715253</v>
+        <v>55.47770248</v>
       </c>
       <c r="E17">
-        <v>37.6539259</v>
+        <v>37.8309775</v>
       </c>
       <c r="F17">
-        <v>55.86306321</v>
+        <v>55.2734708</v>
       </c>
       <c r="G17">
-        <v>20.6</v>
+        <v>55.82</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>10.6</v>
+        <v>45.82</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>698680</v>
+        <v>606536</v>
       </c>
       <c r="B18">
-        <v>635763</v>
+        <v>606533</v>
       </c>
       <c r="C18">
-        <v>37.6539259</v>
+        <v>37.8309775</v>
       </c>
       <c r="D18">
-        <v>55.86306321</v>
+        <v>55.2734708</v>
       </c>
       <c r="E18">
-        <v>37.66292608</v>
+        <v>37.90373657</v>
       </c>
       <c r="F18">
-        <v>55.84224237</v>
+        <v>55.2752139</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>25.4</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>635763</v>
+        <v>606533</v>
       </c>
       <c r="B19">
-        <v>622404</v>
+        <v>606516</v>
       </c>
       <c r="C19">
-        <v>37.66292608</v>
+        <v>37.90373657</v>
       </c>
       <c r="D19">
-        <v>55.84224237</v>
+        <v>55.2752139</v>
       </c>
       <c r="E19">
-        <v>37.65090833</v>
+        <v>38.11969694</v>
       </c>
       <c r="F19">
-        <v>55.82908153</v>
+        <v>55.37104057</v>
       </c>
       <c r="G19">
-        <v>14.84</v>
+        <v>35.1</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>4.84</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>622404</v>
+        <v>606516</v>
       </c>
       <c r="B20">
-        <v>607729</v>
+        <v>678284</v>
       </c>
       <c r="C20">
-        <v>37.65090833</v>
+        <v>38.11969694</v>
       </c>
       <c r="D20">
-        <v>55.82908153</v>
+        <v>55.37104057</v>
       </c>
       <c r="E20">
-        <v>37.65911579</v>
+        <v>38.28135846</v>
       </c>
       <c r="F20">
-        <v>55.83658386</v>
+        <v>55.55134186</v>
       </c>
       <c r="G20">
-        <v>11.48</v>
+        <v>45.38</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>1.48</v>
+        <v>35.38</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>607729</v>
+        <v>678284</v>
       </c>
       <c r="B21">
-        <v>606120</v>
+        <v>688376</v>
       </c>
       <c r="C21">
-        <v>37.65911579</v>
+        <v>38.28135846</v>
       </c>
       <c r="D21">
-        <v>55.83658386</v>
+        <v>55.55134186</v>
       </c>
       <c r="E21">
-        <v>37.66760792</v>
+        <v>38.22946841</v>
       </c>
       <c r="F21">
-        <v>55.83682036</v>
+        <v>55.56799327</v>
       </c>
       <c r="G21">
-        <v>11.84</v>
+        <v>17.01</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>1.84</v>
+        <v>7.009999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>606120</v>
+        <v>688376</v>
       </c>
       <c r="B22">
-        <v>680322</v>
+        <v>635504</v>
       </c>
       <c r="C22">
-        <v>37.66760792</v>
+        <v>38.22946841</v>
       </c>
       <c r="D22">
-        <v>55.83682036</v>
+        <v>55.56799327</v>
       </c>
       <c r="E22">
-        <v>37.64397973</v>
+        <v>38.20226642</v>
       </c>
       <c r="F22">
-        <v>55.8356729</v>
+        <v>55.58611187</v>
       </c>
       <c r="G22">
-        <v>14.09</v>
+        <v>16.7</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>4.09</v>
+        <v>6.699999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>680322</v>
+        <v>635504</v>
       </c>
       <c r="B23">
-        <v>607738</v>
+        <v>622352</v>
       </c>
       <c r="C23">
-        <v>37.64397973</v>
+        <v>38.20226642</v>
       </c>
       <c r="D23">
-        <v>55.8356729</v>
+        <v>55.58611187</v>
       </c>
       <c r="E23">
-        <v>37.641443</v>
+        <v>38.24459571</v>
       </c>
       <c r="F23">
-        <v>55.83179382</v>
+        <v>55.57840369</v>
       </c>
       <c r="G23">
-        <v>11.13</v>
+        <v>17.57</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>1.129999999999999</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>607738</v>
+        <v>622352</v>
       </c>
       <c r="B24">
-        <v>689189</v>
+        <v>683756</v>
       </c>
       <c r="C24">
-        <v>37.641443</v>
+        <v>38.24459571</v>
       </c>
       <c r="D24">
-        <v>55.83179382</v>
+        <v>55.57840369</v>
       </c>
       <c r="E24">
-        <v>37.64598999</v>
+        <v>38.13307676</v>
       </c>
       <c r="F24">
-        <v>55.82437341</v>
+        <v>55.58936157</v>
       </c>
       <c r="G24">
-        <v>12.51</v>
+        <v>25.69</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>2.51</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>689189</v>
+        <v>683756</v>
       </c>
       <c r="B25">
-        <v>686167</v>
+        <v>607030</v>
       </c>
       <c r="C25">
-        <v>37.64598999</v>
+        <v>38.13307676</v>
       </c>
       <c r="D25">
-        <v>55.82437341</v>
+        <v>55.58936157</v>
       </c>
       <c r="E25">
-        <v>37.64583187</v>
+        <v>38.12978765</v>
       </c>
       <c r="F25">
-        <v>55.81323759</v>
+        <v>55.59256309</v>
       </c>
       <c r="G25">
-        <v>12.83</v>
+        <v>10.46</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>2.83</v>
+        <v>0.4600000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>686167</v>
+        <v>607030</v>
       </c>
       <c r="B26">
-        <v>698685</v>
+        <v>607029</v>
       </c>
       <c r="C26">
-        <v>37.64583187</v>
+        <v>38.12978765</v>
       </c>
       <c r="D26">
-        <v>55.81323759</v>
+        <v>55.59256309</v>
       </c>
       <c r="E26">
-        <v>37.64984845</v>
+        <v>38.11191869</v>
       </c>
       <c r="F26">
-        <v>55.81281114</v>
+        <v>55.59927271</v>
       </c>
       <c r="G26">
-        <v>10.68</v>
+        <v>13.5</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>0.6799999999999997</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>698685</v>
+        <v>607029</v>
       </c>
       <c r="B27">
-        <v>659659</v>
+        <v>406136</v>
       </c>
       <c r="C27">
-        <v>37.64984845</v>
+        <v>38.11191869</v>
       </c>
       <c r="D27">
-        <v>55.81281114</v>
+        <v>55.59927271</v>
       </c>
       <c r="E27">
-        <v>37.6598866</v>
+        <v>38.03461793</v>
       </c>
       <c r="F27">
-        <v>55.8133805</v>
+        <v>55.64176404</v>
       </c>
       <c r="G27">
-        <v>11.38</v>
+        <v>22.81</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>1.379999999999999</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>659659</v>
+        <v>406136</v>
       </c>
       <c r="B28">
-        <v>634747</v>
+        <v>635510</v>
       </c>
       <c r="C28">
-        <v>37.6598866</v>
+        <v>38.03461793</v>
       </c>
       <c r="D28">
-        <v>55.8133805</v>
+        <v>55.64176404</v>
       </c>
       <c r="E28">
-        <v>37.629978</v>
+        <v>37.98900829</v>
       </c>
       <c r="F28">
-        <v>55.80482267</v>
+        <v>55.66005345</v>
       </c>
       <c r="G28">
-        <v>13.98</v>
+        <v>18.6</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>3.98</v>
+        <v>8.600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>634747</v>
+        <v>635510</v>
       </c>
       <c r="B29">
-        <v>606153</v>
+        <v>616657</v>
       </c>
       <c r="C29">
-        <v>37.629978</v>
+        <v>37.98900829</v>
       </c>
       <c r="D29">
-        <v>55.80482267</v>
+        <v>55.66005345</v>
       </c>
       <c r="E29">
-        <v>37.63597811</v>
+        <v>37.97515985</v>
       </c>
       <c r="F29">
-        <v>55.81829008</v>
+        <v>55.65808261</v>
       </c>
       <c r="G29">
-        <v>14.64</v>
+        <v>12.95</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>4.640000000000001</v>
+        <v>2.949999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>606153</v>
+        <v>616657</v>
       </c>
       <c r="B30">
-        <v>634691</v>
+        <v>606085</v>
       </c>
       <c r="C30">
-        <v>37.63597811</v>
+        <v>37.97515985</v>
       </c>
       <c r="D30">
-        <v>55.81829008</v>
+        <v>55.65808261</v>
       </c>
       <c r="E30">
-        <v>37.69754384</v>
+        <v>38.00262899</v>
       </c>
       <c r="F30">
-        <v>55.81813735</v>
+        <v>55.67196171</v>
       </c>
       <c r="G30">
-        <v>17.26</v>
+        <v>15.4</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>7.259999999999998</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>634691</v>
+        <v>606085</v>
       </c>
       <c r="B31">
-        <v>619713</v>
+        <v>635779</v>
       </c>
       <c r="C31">
-        <v>37.69754384</v>
+        <v>38.00262899</v>
       </c>
       <c r="D31">
-        <v>55.81813735</v>
+        <v>55.67196171</v>
       </c>
       <c r="E31">
-        <v>37.7042787</v>
+        <v>38.00470932</v>
       </c>
       <c r="F31">
-        <v>55.81991055</v>
+        <v>55.67314421</v>
       </c>
       <c r="G31">
-        <v>11.41</v>
+        <v>11.06</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>619713</v>
-      </c>
-      <c r="B32">
-        <v>688254</v>
-      </c>
-      <c r="C32">
-        <v>37.7042787</v>
-      </c>
-      <c r="D32">
-        <v>55.81991055</v>
-      </c>
-      <c r="E32">
-        <v>37.69203759</v>
-      </c>
-      <c r="F32">
-        <v>55.81642435</v>
-      </c>
-      <c r="G32">
-        <v>12.46</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>2.460000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>688254</v>
-      </c>
-      <c r="B33">
-        <v>629806</v>
-      </c>
-      <c r="C33">
-        <v>37.69203759</v>
-      </c>
-      <c r="D33">
-        <v>55.81642435</v>
-      </c>
-      <c r="E33">
-        <v>37.66993789</v>
-      </c>
-      <c r="F33">
-        <v>55.78278428</v>
-      </c>
-      <c r="G33">
-        <v>12.43</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>629806</v>
-      </c>
-      <c r="B34">
-        <v>637522</v>
-      </c>
-      <c r="C34">
-        <v>37.66993789</v>
-      </c>
-      <c r="D34">
-        <v>55.78278428</v>
-      </c>
-      <c r="E34">
-        <v>37.64465857</v>
-      </c>
-      <c r="F34">
-        <v>55.75941011</v>
-      </c>
-      <c r="G34">
-        <v>21.95</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>11.95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>637522</v>
-      </c>
-      <c r="B35">
-        <v>406196</v>
-      </c>
-      <c r="C35">
-        <v>37.64465857</v>
-      </c>
-      <c r="D35">
-        <v>55.75941011</v>
-      </c>
-      <c r="E35">
-        <v>37.64637977</v>
-      </c>
-      <c r="F35">
-        <v>55.71575379</v>
-      </c>
-      <c r="G35">
-        <v>17.51</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>7.509999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>406196</v>
-      </c>
-      <c r="B36">
-        <v>406180</v>
-      </c>
-      <c r="C36">
-        <v>37.64637977</v>
-      </c>
-      <c r="D36">
-        <v>55.71575379</v>
-      </c>
-      <c r="E36">
-        <v>37.65678581</v>
-      </c>
-      <c r="F36">
-        <v>55.7079405</v>
-      </c>
-      <c r="G36">
-        <v>15.5</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>406180</v>
-      </c>
-      <c r="B37">
-        <v>699540</v>
-      </c>
-      <c r="C37">
-        <v>37.65678581</v>
-      </c>
-      <c r="D37">
-        <v>55.7079405</v>
-      </c>
-      <c r="E37">
-        <v>37.62376766</v>
-      </c>
-      <c r="F37">
-        <v>55.71005149</v>
-      </c>
-      <c r="G37">
-        <v>12.61</v>
-      </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>2.609999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>699540</v>
-      </c>
-      <c r="B38">
-        <v>629749</v>
-      </c>
-      <c r="C38">
-        <v>37.62376766</v>
-      </c>
-      <c r="D38">
-        <v>55.71005149</v>
-      </c>
-      <c r="E38">
-        <v>37.55800726</v>
-      </c>
-      <c r="F38">
-        <v>55.72334372</v>
-      </c>
-      <c r="G38">
-        <v>18.82</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>629749</v>
-      </c>
-      <c r="B39">
-        <v>637189</v>
-      </c>
-      <c r="C39">
-        <v>37.55800726</v>
-      </c>
-      <c r="D39">
-        <v>55.72334372</v>
-      </c>
-      <c r="E39">
-        <v>37.58018579</v>
-      </c>
-      <c r="F39">
-        <v>55.72470141</v>
-      </c>
-      <c r="G39">
-        <v>13.98</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>637189</v>
-      </c>
-      <c r="B40">
-        <v>637536</v>
-      </c>
-      <c r="C40">
-        <v>37.58018579</v>
-      </c>
-      <c r="D40">
-        <v>55.72470141</v>
-      </c>
-      <c r="E40">
-        <v>37.5843158</v>
-      </c>
-      <c r="F40">
-        <v>55.72102251</v>
-      </c>
-      <c r="G40">
-        <v>11.69</v>
-      </c>
-      <c r="H40">
-        <v>10</v>
-      </c>
-      <c r="I40">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>637536</v>
-      </c>
-      <c r="B41">
-        <v>634024</v>
-      </c>
-      <c r="C41">
-        <v>37.5843158</v>
-      </c>
-      <c r="D41">
-        <v>55.72102251</v>
-      </c>
-      <c r="E41">
-        <v>37.56796071</v>
-      </c>
-      <c r="F41">
-        <v>55.74328205</v>
-      </c>
-      <c r="G41">
-        <v>17.19</v>
-      </c>
-      <c r="H41">
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <v>7.190000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>634024</v>
-      </c>
-      <c r="B42">
-        <v>648023</v>
-      </c>
-      <c r="C42">
-        <v>37.56796071</v>
-      </c>
-      <c r="D42">
-        <v>55.74328205</v>
-      </c>
-      <c r="E42">
-        <v>37.52325915</v>
-      </c>
-      <c r="F42">
-        <v>55.75260414</v>
-      </c>
-      <c r="G42">
-        <v>18.53</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>8.530000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>648023</v>
-      </c>
-      <c r="B43">
-        <v>637194</v>
-      </c>
-      <c r="C43">
-        <v>37.52325915</v>
-      </c>
-      <c r="D43">
-        <v>55.75260414</v>
-      </c>
-      <c r="E43">
-        <v>37.52335988</v>
-      </c>
-      <c r="F43">
-        <v>55.69883084</v>
-      </c>
-      <c r="G43">
-        <v>20.58</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>10.58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>637194</v>
-      </c>
-      <c r="B44">
-        <v>634755</v>
-      </c>
-      <c r="C44">
-        <v>37.52335988</v>
-      </c>
-      <c r="D44">
-        <v>55.69883084</v>
-      </c>
-      <c r="E44">
-        <v>37.53200968</v>
-      </c>
-      <c r="F44">
-        <v>55.68384369</v>
-      </c>
-      <c r="G44">
-        <v>14.66</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>634755</v>
-      </c>
-      <c r="B45">
-        <v>605377</v>
-      </c>
-      <c r="C45">
-        <v>37.53200968</v>
-      </c>
-      <c r="D45">
-        <v>55.68384369</v>
-      </c>
-      <c r="E45">
-        <v>37.55893575</v>
-      </c>
-      <c r="F45">
-        <v>55.67957353</v>
-      </c>
-      <c r="G45">
-        <v>13.19</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>605377</v>
-      </c>
-      <c r="B46">
-        <v>605370</v>
-      </c>
-      <c r="C46">
-        <v>37.55893575</v>
-      </c>
-      <c r="D46">
-        <v>55.67957353</v>
-      </c>
-      <c r="E46">
-        <v>37.54395736</v>
-      </c>
-      <c r="F46">
-        <v>55.66857186</v>
-      </c>
-      <c r="G46">
-        <v>14.89</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>4.890000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>605370</v>
-      </c>
-      <c r="B47">
-        <v>698735</v>
-      </c>
-      <c r="C47">
-        <v>37.54395736</v>
-      </c>
-      <c r="D47">
-        <v>55.66857186</v>
-      </c>
-      <c r="E47">
-        <v>37.47333994</v>
-      </c>
-      <c r="F47">
-        <v>55.66548421</v>
-      </c>
-      <c r="G47">
-        <v>18.63</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="I47">
-        <v>8.630000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>698735</v>
-      </c>
-      <c r="B48">
-        <v>677505</v>
-      </c>
-      <c r="C48">
-        <v>37.47333994</v>
-      </c>
-      <c r="D48">
-        <v>55.66548421</v>
-      </c>
-      <c r="E48">
-        <v>37.47261729</v>
-      </c>
-      <c r="F48">
-        <v>55.65152189</v>
-      </c>
-      <c r="G48">
-        <v>12.26</v>
-      </c>
-      <c r="H48">
-        <v>10</v>
-      </c>
-      <c r="I48">
-        <v>2.26</v>
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
